--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F7A5E-1B57-409C-87A3-3E7FCF219E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EAC58-0F1F-4515-B2E8-ECEFD77101EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -647,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,4 +769,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A4F14-C99A-447E-9800-05081D854EC1}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6EAC58-0F1F-4515-B2E8-ECEFD77101EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569811E-A4C3-43B8-A051-F4B0855A107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70823DFC-9F4D-48CC-8A3A-BA1CDFF79EA6}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,16 +748,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -773,10 +768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A4F14-C99A-447E-9800-05081D854EC1}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,16 +870,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569811E-A4C3-43B8-A051-F4B0855A107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF4185-3088-4919-B530-FCEAC1FBDC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344</t>
   </si>
 </sst>
 </file>
@@ -521,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70823DFC-9F4D-48CC-8A3A-BA1CDFF79EA6}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,4 +893,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CF227-CC4B-4937-808D-DFD6779CC2CC}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF4185-3088-4919-B530-FCEAC1FBDC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7859CCED-0263-4833-81FE-42E17043C92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>NGC-3476/T2344</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -899,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CF227-CC4B-4937-808D-DFD6779CC2CC}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,4 +1022,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D127A92A-1E6A-43C2-A60A-9E55E752AFF9}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7859CCED-0263-4833-81FE-42E17043C92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F9A18-C9DD-47D7-84C0-FA6A54B6FC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D127A92A-1E6A-43C2-A60A-9E55E752AFF9}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,4 +1151,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF3179-DCAB-4F03-9048-8C312561FADD}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791F9A18-C9DD-47D7-84C0-FA6A54B6FC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09BCC8-AC0E-44D3-B13C-CABC6B02A3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -119,13 +120,19 @@
   </si>
   <si>
     <t>NGC-2930/T3222</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2155</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +151,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -226,6 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF3179-DCAB-4F03-9048-8C312561FADD}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,4 +1288,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09BCC8-AC0E-44D3-B13C-CABC6B02A3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD913405-DADF-4C19-A2A7-F66DCF7927C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034</t>
   </si>
 </sst>
 </file>
@@ -234,13 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,12 +577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -584,10 +591,10 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -697,12 +704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -711,10 +718,10 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -819,12 +826,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -833,10 +840,10 @@
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -941,12 +948,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -955,10 +962,10 @@
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1063,12 +1070,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1077,10 +1084,10 @@
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1185,12 +1192,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1199,10 +1206,10 @@
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1294,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,12 +1314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1321,10 +1328,10 @@
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1340,7 +1347,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="5"/>
@@ -1349,6 +1356,127 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0D666-6067-4C17-96B4-C63B34D2E53E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD913405-DADF-4C19-A2A7-F66DCF7927C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE4C73-DE51-49F1-A452-908443BC89CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>NGC-3103/T2034</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3291</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0D666-6067-4C17-96B4-C63B34D2E53E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,4 +1545,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E111471-0B41-471D-8A1D-5CE696D537BF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE4C73-DE51-49F1-A452-908443BC89CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB4ACEA-0C75-4B1D-8B0B-4462D75E7D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70823DFC-9F4D-48CC-8A3A-BA1CDFF79EA6}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A4F14-C99A-447E-9800-05081D854EC1}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,11 +920,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -942,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CF227-CC4B-4937-808D-DFD6779CC2CC}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF3179-DCAB-4F03-9048-8C312561FADD}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,11 +1291,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1551,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E111471-0B41-471D-8A1D-5CE696D537BF}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB4ACEA-0C75-4B1D-8B0B-4462D75E7D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92BB87E-7525-43F2-B6BA-5B08A518A538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2415</t>
   </si>
 </sst>
 </file>
@@ -694,6 +701,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B47EA-6A80-4745-9715-46E40C1C180C}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D15"/>
@@ -1191,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF3179-DCAB-4F03-9048-8C312561FADD}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1562,7 +1690,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92BB87E-7525-43F2-B6BA-5B08A518A538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B332040-5215-4218-BE34-D1757EF9EC7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
+    <sheet name="Greece" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +148,12 @@
   </si>
   <si>
     <t>NGC-3139/T2415</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167</t>
   </si>
 </sst>
 </file>
@@ -705,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B47EA-6A80-4745-9715-46E40C1C180C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,6 +759,128 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406EC072-47E0-4BE7-8FE3-C41223F3124D}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B332040-5215-4218-BE34-D1757EF9EC7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274065B5-EBE9-4583-BCEC-199C77674B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
     <sheet name="Greece" sheetId="23" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
+    <sheet name="Austria" sheetId="25" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="43">
   <si>
     <t>Wg</t>
   </si>
@@ -154,6 +157,24 @@
   </si>
   <si>
     <t>NGC-4119/T3167</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2749</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -833,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406EC072-47E0-4BE7-8FE3-C41223F3124D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -881,6 +902,367 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D94A668-B341-4C76-AF9F-85BA10BD7306}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35687AC6-0F48-4A43-9227-22F1BBA3409C}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EFAF1A-AEE4-46E9-82F4-94DF90703B37}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274065B5-EBE9-4583-BCEC-199C77674B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD12C240-1E9F-42D2-AE03-8946A523C021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
     <sheet name="Austria" sheetId="25" r:id="rId13"/>
     <sheet name="Denmark" sheetId="26" r:id="rId14"/>
+    <sheet name="Russia" sheetId="28" r:id="rId15"/>
+    <sheet name="Finland" sheetId="29" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -175,6 +178,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2900</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2943</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35687AC6-0F48-4A43-9227-22F1BBA3409C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1333,6 +1354,369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE5F74-7895-4EA2-8A9B-7A137EC13D8E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D826FD67-3215-4A0E-B1C2-0F93C9645CBF}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87293ABE-5193-4238-8E6B-A72C2CC26C71}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
   <dimension ref="A1:D15"/>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD12C240-1E9F-42D2-AE03-8946A523C021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84525C2F-2315-45AD-BCCF-986F27B2A0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="28" r:id="rId15"/>
     <sheet name="Finland" sheetId="29" r:id="rId16"/>
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
+    <sheet name="Norway" sheetId="31" r:id="rId18"/>
+    <sheet name="Poland" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -196,6 +198,24 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3104</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
   </si>
 </sst>
 </file>
@@ -752,10 +772,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B47EA-6A80-4745-9715-46E40C1C180C}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,36 +848,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -873,10 +903,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406EC072-47E0-4BE7-8FE3-C41223F3124D}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,36 +980,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1600,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87293ABE-5193-4238-8E6B-A72C2CC26C71}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,6 +1744,270 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BBBC02-7310-4645-A5B6-7F2EF13C40EB}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70E0F46-D343-4C03-8F69-A24DE4455BFD}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2090,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D127A92A-1E6A-43C2-A60A-9E55E752AFF9}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,36 +2471,46 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84525C2F-2315-45AD-BCCF-986F27B2A0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA101935-0C8A-4EE0-BF2B-DF4D232A0008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -1638,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87293ABE-5193-4238-8E6B-A72C2CC26C71}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,11 +1739,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1893,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70E0F46-D343-4C03-8F69-A24DE4455BFD}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0D666-6067-4C17-96B4-C63B34D2E53E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,16 +2881,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2896,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E111471-0B41-471D-8A1D-5CE696D537BF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2992,16 +3012,26 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA101935-0C8A-4EE0-BF2B-DF4D232A0008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FCEC2-030B-4A9B-B2E4-133BA60BF078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -1035,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D94A668-B341-4C76-AF9F-85BA10BD7306}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,11 +1137,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1157,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35687AC6-0F48-4A43-9227-22F1BBA3409C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,11 +1264,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1274,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EFAF1A-AEE4-46E9-82F4-94DF90703B37}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1376,11 +1396,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2536,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF3179-DCAB-4F03-9048-8C312561FADD}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2643,11 +2673,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2663,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2765,11 +2805,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2787,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0D666-6067-4C17-96B4-C63B34D2E53E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,7 +2969,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="A8" sqref="A8:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8FCEC2-030B-4A9B-B2E4-133BA60BF078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7975C83C-764A-4D82-9AC5-33378CB5E37A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -1296,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EFAF1A-AEE4-46E9-82F4-94DF90703B37}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
@@ -1426,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AE5F74-7895-4EA2-8A9B-7A137EC13D8E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1439,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1527,11 +1527,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1547,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D826FD67-3215-4A0E-B1C2-0F93C9645CBF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,7 +1570,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1648,11 +1658,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7975C83C-764A-4D82-9AC5-33378CB5E37A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02847C20-35F1-4EAB-B854-98B26B89481F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
     <sheet name="Norway" sheetId="31" r:id="rId18"/>
     <sheet name="Poland" sheetId="32" r:id="rId19"/>
+    <sheet name="UK" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="57">
   <si>
     <t>Wg</t>
   </si>
@@ -216,6 +217,12 @@
   </si>
   <si>
     <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D826FD67-3215-4A0E-B1C2-0F93C9645CBF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
@@ -2203,6 +2210,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE09E8A-166D-43AC-92D5-0A4ADC926278}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A4F14-C99A-447E-9800-05081D854EC1}">
   <dimension ref="A1:D16"/>
